--- a/VtigerProject/src/test/resources/vTigerTestData.xlsx
+++ b/VtigerProject/src/test/resources/vTigerTestData.xlsx
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Received Shipment</t>
+  </si>
+  <si>
+    <t>Administrator - Home - vtiger CRM 5 - Commercial Open Source CRM</t>
+  </si>
+  <si>
+    <t>Administrator - Purchase Order - vtiger CRM 5 - Commercial Open Source CRM</t>
   </si>
 </sst>
 </file>
@@ -436,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="D1">
+      <selection activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
